--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\GitHub_aisavikin\vedomost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D647BB3-F0A7-4F8A-AEAE-A0E2E82D14B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F7BCA-BF44-411E-B937-BF6B6869AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
   </bookViews>
   <sheets>
-    <sheet name="ГР.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
+    <sheet name="Заметки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">ГР.1!$A$1:$AO$46</definedName>
-    <definedName name="Print_Titles" localSheetId="0">ГР.1!$9:$15</definedName>
+    <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AO$46</definedName>
+    <definedName name="Print_Titles" localSheetId="0">Посещаемость!$9:$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -555,27 +556,105 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,6 +662,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -612,96 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1024,7 @@
   <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42:AE42"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1052,88 +1053,88 @@
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="19"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
       <c r="AI2" s="19" t="s">
         <v>47</v>
       </c>
       <c r="AJ2" s="19"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="67"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="38"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
@@ -1150,14 +1151,14 @@
       <c r="M3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="22" t="s">
         <v>45</v>
       </c>
@@ -1181,189 +1182,189 @@
       <c r="AL3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="33"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
       <c r="AJ4" s="19"/>
       <c r="AK4" s="19"/>
       <c r="AL4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="62"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
       <c r="AL5" s="19"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="62"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="33"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="62"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="33"/>
     </row>
     <row r="7" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="73"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="44"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
@@ -1408,376 +1409,376 @@
       <c r="AO8" s="19"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
       <c r="AM9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AN9" s="54" t="s">
+      <c r="AN9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AO9" s="54"/>
+      <c r="AO9" s="49"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
       <c r="AM10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="53" t="s">
+      <c r="AN10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AO10" s="53"/>
+      <c r="AO10" s="51"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="29">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="27">
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>2</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>3</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <v>4</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <v>5</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <v>6</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <v>7</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <v>8</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>9</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>10</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="27">
         <v>11</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="27">
         <v>12</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="27">
         <v>13</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="27">
         <v>14</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="27">
         <v>15</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="27">
         <v>16</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="27">
         <v>17</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="27">
         <v>18</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="27">
         <v>19</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="27">
         <v>20</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="27">
         <v>21</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="27">
         <v>22</v>
       </c>
-      <c r="AA11" s="29">
+      <c r="AA11" s="27">
         <v>23</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="27">
         <v>24</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="27">
         <v>25</v>
       </c>
-      <c r="AD11" s="29">
+      <c r="AD11" s="27">
         <v>26</v>
       </c>
-      <c r="AE11" s="29">
+      <c r="AE11" s="27">
         <v>27</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AF11" s="27">
         <v>28</v>
       </c>
-      <c r="AG11" s="29">
+      <c r="AG11" s="27">
         <v>29</v>
       </c>
-      <c r="AH11" s="29">
+      <c r="AH11" s="27">
         <v>30</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AI11" s="27">
         <v>31</v>
       </c>
-      <c r="AJ11" s="56" t="s">
+      <c r="AJ11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AK11" s="53" t="s">
+      <c r="AK11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="53"/>
+      <c r="AL11" s="51"/>
       <c r="AM11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AN11" s="53" t="s">
+      <c r="AN11" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AO11" s="53"/>
+      <c r="AO11" s="51"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="53" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AL12" s="53"/>
+      <c r="AL12" s="51"/>
       <c r="AM12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AN12" s="53" t="s">
+      <c r="AN12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AO12" s="53"/>
+      <c r="AO12" s="51"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="53" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AL13" s="53"/>
+      <c r="AL13" s="51"/>
       <c r="AM13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AN13" s="53" t="s">
+      <c r="AN13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AO13" s="53"/>
+      <c r="AO13" s="51"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="53" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AL14" s="53"/>
+      <c r="AL14" s="51"/>
       <c r="AM14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="76">
         <v>1</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="16">
         <v>2</v>
       </c>
@@ -1880,17 +1881,17 @@
       <c r="AJ15" s="16">
         <v>35</v>
       </c>
-      <c r="AK15" s="54">
+      <c r="AK15" s="49">
         <v>36</v>
       </c>
-      <c r="AL15" s="54"/>
+      <c r="AL15" s="49"/>
       <c r="AM15" s="16">
         <v>37</v>
       </c>
-      <c r="AN15" s="55">
+      <c r="AN15" s="59">
         <v>38</v>
       </c>
-      <c r="AO15" s="55"/>
+      <c r="AO15" s="59"/>
     </row>
     <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -1931,11 +1932,11 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="35"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="61"/>
       <c r="AM16" s="11"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="33"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="58"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -1976,11 +1977,11 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="34"/>
-      <c r="AL17" s="35"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="61"/>
       <c r="AM17" s="11"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="33"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="58"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -2021,11 +2022,11 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="35"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="61"/>
       <c r="AM18" s="11"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="33"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="58"/>
     </row>
     <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -2066,11 +2067,11 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
+      <c r="AK19" s="55"/>
+      <c r="AL19" s="55"/>
       <c r="AM19" s="11"/>
-      <c r="AN19" s="28"/>
-      <c r="AO19" s="28"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
@@ -2111,11 +2112,11 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="35"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="61"/>
       <c r="AM20" s="11"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="33"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="58"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -2156,11 +2157,11 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="35"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="61"/>
       <c r="AM21" s="11"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
       <c r="AT21" s="15"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -2202,11 +2203,11 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
       <c r="AM22" s="11"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
     </row>
     <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
@@ -2247,11 +2248,11 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
       <c r="AM23" s="11"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -2292,11 +2293,11 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
       <c r="AM24" s="11"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="56"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -2337,11 +2338,11 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
       <c r="AM25" s="11"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
     </row>
     <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -2382,11 +2383,11 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="35"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="61"/>
       <c r="AM26" s="11"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="33"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="58"/>
     </row>
     <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
@@ -2427,11 +2428,11 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
       <c r="AM27" s="11"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
     </row>
     <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -2475,8 +2476,8 @@
       <c r="AK28" s="25"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="11"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="33"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="58"/>
     </row>
     <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
@@ -2517,11 +2518,11 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="35"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="61"/>
       <c r="AM29" s="11"/>
-      <c r="AN29" s="28"/>
-      <c r="AO29" s="28"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
       <c r="AR29" s="14"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -2563,11 +2564,11 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
       <c r="AM30" s="11"/>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
     </row>
     <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
@@ -2608,11 +2609,11 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="35"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="61"/>
       <c r="AM31" s="11"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="33"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="58"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
@@ -2653,11 +2654,11 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
       <c r="AM32" s="11"/>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
     </row>
     <row r="33" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
@@ -2698,11 +2699,11 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
       <c r="AM33" s="11"/>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
     </row>
     <row r="34" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
@@ -2743,11 +2744,11 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="35"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="61"/>
       <c r="AM34" s="11"/>
-      <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
     </row>
     <row r="35" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
@@ -2788,11 +2789,11 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
       <c r="AM35" s="11"/>
-      <c r="AN35" s="28"/>
-      <c r="AO35" s="28"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
     </row>
     <row r="36" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
@@ -2833,11 +2834,11 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="35"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="61"/>
       <c r="AM36" s="11"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="33"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="58"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
@@ -2878,11 +2879,11 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
       <c r="AM37" s="11"/>
-      <c r="AN37" s="28"/>
-      <c r="AO37" s="28"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
     </row>
     <row r="38" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
@@ -2923,11 +2924,11 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
       <c r="AM38" s="11"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="33"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="58"/>
     </row>
     <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -2935,105 +2936,105 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="49" t="s">
+      <c r="P39" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="50" t="s">
+      <c r="X39" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="49" t="s">
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AC39" s="49"/>
-      <c r="AD39" s="49"/>
-      <c r="AE39" s="49"/>
-      <c r="AF39" s="49"/>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49" t="s">
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="65"/>
+      <c r="AG39" s="65"/>
+      <c r="AH39" s="65"/>
+      <c r="AI39" s="65"/>
+      <c r="AJ39" s="65"/>
+      <c r="AK39" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AL39" s="49"/>
-      <c r="AM39" s="49"/>
-      <c r="AN39" s="49"/>
-      <c r="AO39" s="49"/>
+      <c r="AL39" s="65"/>
+      <c r="AM39" s="65"/>
+      <c r="AN39" s="65"/>
+      <c r="AO39" s="65"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36" t="s">
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="36" t="s">
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36" t="s">
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36" t="s">
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="62"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
@@ -3083,22 +3084,22 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -3109,11 +3110,11 @@
       <c r="Z42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="8" t="s">
         <v>3</v>
@@ -3133,26 +3134,26 @@
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="36" t="s">
+      <c r="L43" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -3177,8 +3178,8 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
@@ -3225,81 +3226,27 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AF11:AF14"/>
-    <mergeCell ref="AG11:AG14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="D1:AH2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="C7:AI7"/>
-    <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="C5:AI5"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="E10:AI10"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="AH11:AH14"/>
-    <mergeCell ref="AI11:AI14"/>
-    <mergeCell ref="AJ11:AJ14"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AB40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AK40:AO40"/>
-    <mergeCell ref="X39:AA40"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="AA42:AE42"/>
-    <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AN31:AO31"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AN32:AO32"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AN28:AO28"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AK23:AL23"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="L43:T43"/>
     <mergeCell ref="C44:D44"/>
@@ -3324,13 +3271,23 @@
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="F11:F14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="AA11:AA14"/>
-    <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="AC11:AC14"/>
-    <mergeCell ref="AD11:AD14"/>
-    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="AB40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AK40:AO40"/>
+    <mergeCell ref="X39:AA40"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="AA42:AE42"/>
+    <mergeCell ref="AB39:AG39"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="AN31:AO31"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AN33:AO33"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AN35:AO35"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AK39:AO39"/>
     <mergeCell ref="AK38:AL38"/>
     <mergeCell ref="AN38:AO38"/>
     <mergeCell ref="AK34:AL34"/>
@@ -3338,27 +3295,71 @@
     <mergeCell ref="AN36:AO36"/>
     <mergeCell ref="AK37:AL37"/>
     <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AN32:AO32"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="C7:AI7"/>
+    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="C5:AI5"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:AI9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="E10:AI10"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="AH11:AH14"/>
+    <mergeCell ref="AI11:AI14"/>
+    <mergeCell ref="AJ11:AJ14"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="D1:AH2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="C6:AI6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AF11:AF14"/>
+    <mergeCell ref="AG11:AG14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="AC11:AC14"/>
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -3366,4 +3367,16 @@
     <brk id="37" max="40" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE2A25-6F17-4DD3-A2B5-AE67ED7ECA21}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\GitHub_aisavikin\vedomost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55F7BCA-BF44-411E-B937-BF6B6869AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FDF08C-7103-4360-9C60-CD1CD02493C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
+    <workbookView xWindow="1380" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>(расшифровка подписи)</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>за</t>
@@ -486,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,12 +532,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -598,6 +586,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,25 +631,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,8 +1014,8 @@
   </sheetPr>
   <dimension ref="A1:AT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1053,88 +1044,88 @@
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
+      <c r="D1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="19"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
       <c r="AI2" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AJ2" s="19"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="38"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
@@ -1149,22 +1140,20 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="39"/>
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
@@ -1182,189 +1171,189 @@
       <c r="AL3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="33"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="31"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
       <c r="AJ4" s="19"/>
       <c r="AK4" s="19"/>
       <c r="AL4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="33"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="31"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
       <c r="AL5" s="19"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="33"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="31"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
       <c r="AJ6" s="19"/>
       <c r="AK6" s="19"/>
       <c r="AL6" s="19"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="33"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="31"/>
     </row>
     <row r="7" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
       <c r="AJ7" s="19"/>
       <c r="AK7" s="19"/>
       <c r="AL7" s="19"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="44"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="43"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
@@ -1409,376 +1398,376 @@
       <c r="AO8" s="19"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
       <c r="AM9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AN9" s="49" t="s">
+      <c r="AN9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AO9" s="49"/>
+      <c r="AO9" s="48"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
       <c r="AM10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="51" t="s">
+      <c r="AN10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AO10" s="51"/>
+      <c r="AO10" s="50"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="27">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <v>2</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>3</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>4</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>5</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="25">
         <v>6</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="25">
         <v>7</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="25">
         <v>8</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="25">
         <v>9</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="25">
         <v>10</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="25">
         <v>11</v>
       </c>
-      <c r="P11" s="27">
+      <c r="P11" s="25">
         <v>12</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <v>13</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="25">
         <v>14</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="25">
         <v>15</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="25">
         <v>17</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="25">
         <v>18</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W11" s="25">
         <v>19</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X11" s="25">
         <v>20</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="Y11" s="25">
         <v>21</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="Z11" s="25">
         <v>22</v>
       </c>
-      <c r="AA11" s="27">
+      <c r="AA11" s="25">
         <v>23</v>
       </c>
-      <c r="AB11" s="27">
+      <c r="AB11" s="25">
         <v>24</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC11" s="25">
         <v>25</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="25">
         <v>26</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="25">
         <v>27</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AF11" s="25">
         <v>28</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AG11" s="25">
         <v>29</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="25">
         <v>30</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AI11" s="25">
         <v>31</v>
       </c>
-      <c r="AJ11" s="52" t="s">
+      <c r="AJ11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AK11" s="51" t="s">
+      <c r="AK11" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="AL11" s="51"/>
+      <c r="AL11" s="50"/>
       <c r="AM11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AN11" s="51" t="s">
+      <c r="AN11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AO11" s="51"/>
+      <c r="AO11" s="50"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="51" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AL12" s="51"/>
+      <c r="AL12" s="50"/>
       <c r="AM12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AN12" s="51" t="s">
+      <c r="AN12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AO12" s="51"/>
+      <c r="AO12" s="50"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="51" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="AL13" s="51"/>
+      <c r="AL13" s="50"/>
       <c r="AM13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AN13" s="51" t="s">
+      <c r="AN13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AO13" s="51"/>
+      <c r="AO13" s="50"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="29"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="51" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AL14" s="51"/>
+      <c r="AL14" s="50"/>
       <c r="AM14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="76">
+      <c r="A15" s="75">
         <v>1</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="16">
         <v>2</v>
       </c>
@@ -1881,25 +1870,25 @@
       <c r="AJ15" s="16">
         <v>35</v>
       </c>
-      <c r="AK15" s="49">
+      <c r="AK15" s="48">
         <v>36</v>
       </c>
-      <c r="AL15" s="49"/>
+      <c r="AL15" s="48"/>
       <c r="AM15" s="16">
         <v>37</v>
       </c>
-      <c r="AN15" s="59">
+      <c r="AN15" s="54">
         <v>38</v>
       </c>
-      <c r="AO15" s="59"/>
+      <c r="AO15" s="54"/>
     </row>
     <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1932,19 +1921,19 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="61"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="58"/>
       <c r="AM16" s="11"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="58"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="56"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1977,19 +1966,19 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="61"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="58"/>
       <c r="AM17" s="11"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="58"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="56"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>3</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2022,19 +2011,19 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="61"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="58"/>
       <c r="AM18" s="11"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="58"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="56"/>
     </row>
     <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2067,19 +2056,19 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
       <c r="AM19" s="11"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
     </row>
     <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>5</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2112,19 +2101,19 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="61"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="58"/>
       <c r="AM20" s="11"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="58"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="56"/>
     </row>
     <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>6</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2157,11 +2146,11 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="61"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="58"/>
       <c r="AM21" s="11"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
       <c r="AT21" s="15"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -2169,8 +2158,8 @@
         <v>7</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2203,19 +2192,19 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
       <c r="AM22" s="11"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
     </row>
     <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>8</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2248,19 +2237,19 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
       <c r="AM23" s="11"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>9</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2293,19 +2282,19 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
       <c r="AM24" s="11"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>10</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2338,19 +2327,19 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
       <c r="AM25" s="11"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
     </row>
     <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>11</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2383,19 +2372,19 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="61"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="58"/>
       <c r="AM26" s="11"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="58"/>
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="56"/>
     </row>
     <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>12</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2428,19 +2417,19 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
       <c r="AM27" s="11"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
     </row>
     <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>13</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2473,19 +2462,19 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="26"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="24"/>
       <c r="AM28" s="11"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="58"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="56"/>
     </row>
     <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>14</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2518,11 +2507,11 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="61"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="58"/>
       <c r="AM29" s="11"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
       <c r="AR29" s="14"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
@@ -2530,8 +2519,8 @@
         <v>15</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2564,19 +2553,19 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
       <c r="AM30" s="11"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
     </row>
     <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>16</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2609,19 +2598,19 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="61"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="58"/>
       <c r="AM31" s="11"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="58"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="56"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>17</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2654,19 +2643,19 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
       <c r="AM32" s="11"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="60"/>
     </row>
     <row r="33" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>18</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2699,19 +2688,19 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
       <c r="AM33" s="11"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="60"/>
     </row>
     <row r="34" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>19</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -2744,19 +2733,19 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="61"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="58"/>
       <c r="AM34" s="11"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
     </row>
     <row r="35" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>20</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -2789,19 +2778,19 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
       <c r="AM35" s="11"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
     </row>
     <row r="36" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>21</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -2834,19 +2823,19 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="61"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="58"/>
       <c r="AM36" s="11"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="58"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="56"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>22</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -2879,19 +2868,19 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
       <c r="AM37" s="11"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
     </row>
     <row r="38" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>23</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2924,11 +2913,11 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
       <c r="AM38" s="11"/>
-      <c r="AN38" s="57"/>
-      <c r="AO38" s="58"/>
+      <c r="AN38" s="55"/>
+      <c r="AO38" s="56"/>
     </row>
     <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -2936,105 +2925,105 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="65" t="s">
+      <c r="P39" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="63" t="s">
+      <c r="X39" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="65" t="s">
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AC39" s="65"/>
-      <c r="AD39" s="65"/>
-      <c r="AE39" s="65"/>
-      <c r="AF39" s="65"/>
-      <c r="AG39" s="65"/>
-      <c r="AH39" s="65"/>
-      <c r="AI39" s="65"/>
-      <c r="AJ39" s="65"/>
-      <c r="AK39" s="65" t="s">
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="64"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="64"/>
+      <c r="AK39" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AL39" s="65"/>
-      <c r="AM39" s="65"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="65"/>
+      <c r="AL39" s="64"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="64"/>
+      <c r="AO39" s="64"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="64"/>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="62" t="s">
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62" t="s">
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62" t="s">
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="61"/>
+      <c r="AK40" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="62"/>
+      <c r="AL40" s="61"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
+      <c r="AO40" s="61"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
@@ -3084,22 +3073,22 @@
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -3110,11 +3099,11 @@
       <c r="Z42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="8" t="s">
         <v>3</v>
@@ -3134,26 +3123,26 @@
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="62" t="s">
+      <c r="E43" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="62" t="s">
+      <c r="L43" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
+      <c r="T43" s="61"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -3178,8 +3167,8 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
@@ -3225,7 +3214,8 @@
       <c r="B46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="135">
     <mergeCell ref="AK32:AL32"/>
     <mergeCell ref="AN32:AO32"/>
     <mergeCell ref="AK27:AL27"/>
@@ -3237,16 +3227,16 @@
     <mergeCell ref="AK29:AL29"/>
     <mergeCell ref="AK31:AL31"/>
     <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
     <mergeCell ref="AK24:AL24"/>
     <mergeCell ref="AN24:AO24"/>
     <mergeCell ref="AK25:AL25"/>
     <mergeCell ref="AN25:AO25"/>
     <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AN21:AO21"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="L43:T43"/>
     <mergeCell ref="C44:D44"/>
@@ -3295,11 +3285,6 @@
     <mergeCell ref="AN36:AO36"/>
     <mergeCell ref="AK37:AL37"/>
     <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AN21:AO21"/>
     <mergeCell ref="AK14:AL14"/>
     <mergeCell ref="AN14:AO14"/>
     <mergeCell ref="AK15:AL15"/>
@@ -3309,6 +3294,11 @@
     <mergeCell ref="AK20:AL20"/>
     <mergeCell ref="AK19:AL19"/>
     <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN18:AO18"/>
     <mergeCell ref="C7:AI7"/>
     <mergeCell ref="AM7:AO7"/>
     <mergeCell ref="C5:AI5"/>
@@ -3343,6 +3333,7 @@
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="C6:AI6"/>
     <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="V3:W3"/>
     <mergeCell ref="AF11:AF14"/>
     <mergeCell ref="AG11:AG14"/>
     <mergeCell ref="G11:G14"/>
@@ -3373,10 +3364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE2A25-6F17-4DD3-A2B5-AE67ED7ECA21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\GitHub_aisavikin\vedomost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FDF08C-7103-4360-9C60-CD1CD02493C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938D470-8C0B-4BA3-A494-2715BC6C397C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
+    <workbookView xWindow="2550" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
     <sheet name="Заметки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AO$46</definedName>
+    <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AM$46</definedName>
     <definedName name="Print_Titles" localSheetId="0">Посещаемость!$9:$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>(расшифровка подписи)</t>
   </si>
@@ -125,9 +125,6 @@
     <t>посе-</t>
   </si>
   <si>
-    <t>дней</t>
-  </si>
-  <si>
     <t>имя ребенка</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Дни</t>
   </si>
   <si>
-    <t>Пропущено</t>
-  </si>
-  <si>
     <t>Дни посещения</t>
   </si>
   <si>
@@ -161,18 +155,12 @@
     <t>Структурное подразделение</t>
   </si>
   <si>
-    <t>по ОКПО</t>
-  </si>
-  <si>
     <t>МАДОУ № 315</t>
   </si>
   <si>
     <t>Учреждение</t>
   </si>
   <si>
-    <t>Дата</t>
-  </si>
-  <si>
     <t>за</t>
   </si>
   <si>
@@ -180,6 +168,9 @@
   </si>
   <si>
     <t>УЧЕТА ПОСЕЩАЕМОСТИ  ДЕТЕЙ</t>
+  </si>
+  <si>
+    <t>Пропущено дней</t>
   </si>
 </sst>
 </file>
@@ -262,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -440,17 +431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -480,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,9 +502,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -541,27 +518,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,15 +542,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,15 +554,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,9 +578,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
@@ -630,27 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,14 +621,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,10 +979,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AR46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:W3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,860 +1002,825 @@
     <col min="32" max="32" width="3.28515625" customWidth="1"/>
     <col min="33" max="33" width="4.28515625" customWidth="1"/>
     <col min="34" max="35" width="3.7109375" customWidth="1"/>
-    <col min="36" max="37" width="4.28515625" customWidth="1"/>
-    <col min="38" max="38" width="2" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" customWidth="1"/>
-    <col min="40" max="41" width="4.28515625" customWidth="1"/>
+    <col min="36" max="36" width="5.28515625" customWidth="1"/>
+    <col min="37" max="37" width="6.28515625" customWidth="1"/>
+    <col min="38" max="38" width="6" customWidth="1"/>
+    <col min="39" max="39" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="19"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="39" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="18"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="28"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="39"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="28"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="28"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="28"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="28"/>
+    </row>
+    <row r="7" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="36"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="31"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="31"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="31"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="67"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" s="61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <v>4</v>
+      </c>
+      <c r="I11" s="24">
+        <v>5</v>
+      </c>
+      <c r="J11" s="24">
+        <v>6</v>
+      </c>
+      <c r="K11" s="24">
+        <v>7</v>
+      </c>
+      <c r="L11" s="24">
+        <v>8</v>
+      </c>
+      <c r="M11" s="24">
+        <v>9</v>
+      </c>
+      <c r="N11" s="24">
+        <v>10</v>
+      </c>
+      <c r="O11" s="24">
+        <v>11</v>
+      </c>
+      <c r="P11" s="24">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>13</v>
+      </c>
+      <c r="R11" s="24">
+        <v>14</v>
+      </c>
+      <c r="S11" s="24">
+        <v>15</v>
+      </c>
+      <c r="T11" s="24">
+        <v>16</v>
+      </c>
+      <c r="U11" s="24">
+        <v>17</v>
+      </c>
+      <c r="V11" s="24">
+        <v>18</v>
+      </c>
+      <c r="W11" s="24">
+        <v>19</v>
+      </c>
+      <c r="X11" s="24">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="24">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="24">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>28</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>29</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="24">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK11" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM11" s="61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM12" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM13" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM14" s="61"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="70">
+        <v>1</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="23">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23">
+        <v>4</v>
+      </c>
+      <c r="F15" s="72">
+        <v>5</v>
+      </c>
+      <c r="G15" s="23">
+        <v>6</v>
+      </c>
+      <c r="H15" s="23">
+        <v>7</v>
+      </c>
+      <c r="I15" s="23">
+        <v>8</v>
+      </c>
+      <c r="J15" s="72">
+        <v>9</v>
+      </c>
+      <c r="K15" s="23">
+        <v>10</v>
+      </c>
+      <c r="L15" s="23">
+        <v>11</v>
+      </c>
+      <c r="M15" s="23">
+        <v>12</v>
+      </c>
+      <c r="N15" s="23">
+        <v>13</v>
+      </c>
+      <c r="O15" s="23">
+        <v>14</v>
+      </c>
+      <c r="P15" s="23">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="23">
+        <v>16</v>
+      </c>
+      <c r="R15" s="23">
+        <v>17</v>
+      </c>
+      <c r="S15" s="23">
+        <v>18</v>
+      </c>
+      <c r="T15" s="23">
+        <v>19</v>
+      </c>
+      <c r="U15" s="23">
+        <v>20</v>
+      </c>
+      <c r="V15" s="23">
+        <v>21</v>
+      </c>
+      <c r="W15" s="23">
+        <v>22</v>
+      </c>
+      <c r="X15" s="23">
+        <v>23</v>
+      </c>
+      <c r="Y15" s="23">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="23">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="23">
+        <v>26</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>27</v>
+      </c>
+      <c r="AC15" s="23">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="23">
+        <v>29</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>30</v>
+      </c>
+      <c r="AF15" s="23">
+        <v>31</v>
+      </c>
+      <c r="AG15" s="23">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="23">
+        <v>34</v>
+      </c>
+      <c r="AJ15" s="23">
+        <v>35</v>
+      </c>
+      <c r="AK15" s="23">
+        <v>36</v>
+      </c>
+      <c r="AL15" s="23">
+        <v>37</v>
+      </c>
+      <c r="AM15" s="73">
         <v>38</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="31"/>
-    </row>
-    <row r="7" spans="1:41" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="43"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN9" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO9" s="48"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO10" s="50"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="25">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25">
-        <v>2</v>
-      </c>
-      <c r="G11" s="25">
-        <v>3</v>
-      </c>
-      <c r="H11" s="25">
-        <v>4</v>
-      </c>
-      <c r="I11" s="25">
-        <v>5</v>
-      </c>
-      <c r="J11" s="25">
-        <v>6</v>
-      </c>
-      <c r="K11" s="25">
-        <v>7</v>
-      </c>
-      <c r="L11" s="25">
-        <v>8</v>
-      </c>
-      <c r="M11" s="25">
-        <v>9</v>
-      </c>
-      <c r="N11" s="25">
-        <v>10</v>
-      </c>
-      <c r="O11" s="25">
-        <v>11</v>
-      </c>
-      <c r="P11" s="25">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>13</v>
-      </c>
-      <c r="R11" s="25">
-        <v>14</v>
-      </c>
-      <c r="S11" s="25">
-        <v>15</v>
-      </c>
-      <c r="T11" s="25">
-        <v>16</v>
-      </c>
-      <c r="U11" s="25">
-        <v>17</v>
-      </c>
-      <c r="V11" s="25">
-        <v>18</v>
-      </c>
-      <c r="W11" s="25">
-        <v>19</v>
-      </c>
-      <c r="X11" s="25">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="25">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="25">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="25">
-        <v>24</v>
-      </c>
-      <c r="AC11" s="25">
-        <v>25</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>26</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>27</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>28</v>
-      </c>
-      <c r="AG11" s="25">
-        <v>29</v>
-      </c>
-      <c r="AH11" s="25">
-        <v>30</v>
-      </c>
-      <c r="AI11" s="25">
-        <v>31</v>
-      </c>
-      <c r="AJ11" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK11" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN11" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO11" s="50"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN12" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO12" s="50"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN13" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO13" s="50"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="75">
-        <v>1</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="16">
-        <v>2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>3</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4</v>
-      </c>
-      <c r="F15" s="17">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16">
-        <v>6</v>
-      </c>
-      <c r="H15" s="16">
-        <v>7</v>
-      </c>
-      <c r="I15" s="16">
-        <v>8</v>
-      </c>
-      <c r="J15" s="17">
-        <v>9</v>
-      </c>
-      <c r="K15" s="16">
-        <v>10</v>
-      </c>
-      <c r="L15" s="16">
-        <v>11</v>
-      </c>
-      <c r="M15" s="16">
-        <v>12</v>
-      </c>
-      <c r="N15" s="16">
-        <v>13</v>
-      </c>
-      <c r="O15" s="16">
-        <v>14</v>
-      </c>
-      <c r="P15" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>16</v>
-      </c>
-      <c r="R15" s="16">
-        <v>17</v>
-      </c>
-      <c r="S15" s="16">
-        <v>18</v>
-      </c>
-      <c r="T15" s="16">
-        <v>19</v>
-      </c>
-      <c r="U15" s="16">
-        <v>20</v>
-      </c>
-      <c r="V15" s="16">
-        <v>21</v>
-      </c>
-      <c r="W15" s="16">
-        <v>22</v>
-      </c>
-      <c r="X15" s="16">
-        <v>23</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>24</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>25</v>
-      </c>
-      <c r="AA15" s="16">
-        <v>26</v>
-      </c>
-      <c r="AB15" s="16">
-        <v>27</v>
-      </c>
-      <c r="AC15" s="16">
-        <v>28</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>29</v>
-      </c>
-      <c r="AE15" s="16">
-        <v>30</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>31</v>
-      </c>
-      <c r="AG15" s="16">
-        <v>32</v>
-      </c>
-      <c r="AH15" s="16">
-        <v>33</v>
-      </c>
-      <c r="AI15" s="16">
-        <v>34</v>
-      </c>
-      <c r="AJ15" s="16">
-        <v>35</v>
-      </c>
-      <c r="AK15" s="48">
-        <v>36</v>
-      </c>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="16">
-        <v>37</v>
-      </c>
-      <c r="AN15" s="54">
-        <v>38</v>
-      </c>
-      <c r="AO15" s="54"/>
-    </row>
-    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1921,19 +1853,17 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="56"/>
-    </row>
-    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="69"/>
+    </row>
+    <row r="17" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>2</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1966,19 +1896,17 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="56"/>
-    </row>
-    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="69"/>
+    </row>
+    <row r="18" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>3</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2011,19 +1939,17 @@
       <c r="AH18" s="11"/>
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="56"/>
-    </row>
-    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="69"/>
+    </row>
+    <row r="19" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2056,19 +1982,17 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="60"/>
-    </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="69"/>
+    </row>
+    <row r="20" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>5</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2101,19 +2025,17 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="56"/>
-    </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="69"/>
+    </row>
+    <row r="21" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>6</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2146,20 +2068,18 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="11"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="60"/>
-      <c r="AT21" s="15"/>
-    </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="69"/>
+      <c r="AR21" s="15"/>
+    </row>
+    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>7</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2192,19 +2112,17 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
-    </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="69"/>
+    </row>
+    <row r="23" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>8</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2237,19 +2155,17 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
-    </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="69"/>
+    </row>
+    <row r="24" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>9</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2282,19 +2198,17 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="11"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="60"/>
-    </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="69"/>
+    </row>
+    <row r="25" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>10</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2327,19 +2241,17 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="60"/>
-    </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="69"/>
+    </row>
+    <row r="26" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>11</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2372,19 +2284,17 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="58"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="55"/>
-      <c r="AO26" s="56"/>
-    </row>
-    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="69"/>
+    </row>
+    <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>12</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2417,19 +2327,17 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-    </row>
-    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="69"/>
+    </row>
+    <row r="28" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>13</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2462,19 +2370,17 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="11"/>
-      <c r="AN28" s="55"/>
-      <c r="AO28" s="56"/>
-    </row>
-    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="69"/>
+    </row>
+    <row r="29" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>14</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2507,20 +2413,18 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="11"/>
-      <c r="AN29" s="60"/>
-      <c r="AO29" s="60"/>
-      <c r="AR29" s="14"/>
-    </row>
-    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="69"/>
+      <c r="AP29" s="14"/>
+    </row>
+    <row r="30" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>15</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -2553,19 +2457,17 @@
       <c r="AH30" s="11"/>
       <c r="AI30" s="11"/>
       <c r="AJ30" s="11"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="11"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-    </row>
-    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="69"/>
+    </row>
+    <row r="31" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>16</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -2598,19 +2500,17 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="58"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="56"/>
-    </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="69"/>
+    </row>
+    <row r="32" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>17</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2643,19 +2543,17 @@
       <c r="AH32" s="11"/>
       <c r="AI32" s="11"/>
       <c r="AJ32" s="11"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="11"/>
-      <c r="AN32" s="60"/>
-      <c r="AO32" s="60"/>
-    </row>
-    <row r="33" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="69"/>
+    </row>
+    <row r="33" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>18</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2688,19 +2586,17 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="60"/>
-    </row>
-    <row r="34" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="69"/>
+    </row>
+    <row r="34" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>19</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -2733,19 +2629,17 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
       <c r="AJ34" s="11"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="60"/>
-    </row>
-    <row r="35" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="69"/>
+    </row>
+    <row r="35" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>20</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -2778,19 +2672,17 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-    </row>
-    <row r="36" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="69"/>
+    </row>
+    <row r="36" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>21</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -2823,19 +2715,17 @@
       <c r="AH36" s="11"/>
       <c r="AI36" s="11"/>
       <c r="AJ36" s="11"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="58"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="56"/>
-    </row>
-    <row r="37" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="69"/>
+    </row>
+    <row r="37" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>22</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -2868,19 +2758,17 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="60"/>
-      <c r="AO37" s="60"/>
-    </row>
-    <row r="38" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="69"/>
+    </row>
+    <row r="38" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>23</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -2913,119 +2801,113 @@
       <c r="AH38" s="11"/>
       <c r="AI38" s="11"/>
       <c r="AJ38" s="11"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="11"/>
-      <c r="AN38" s="55"/>
-      <c r="AO38" s="56"/>
-    </row>
-    <row r="39" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="69"/>
+    </row>
+    <row r="39" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="77" t="s">
+      <c r="E39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="64" t="s">
+      <c r="P39" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
       <c r="W39" s="7"/>
-      <c r="X39" s="62" t="s">
+      <c r="X39" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="64" t="s">
+      <c r="Y39" s="47"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="64"/>
-      <c r="AH39" s="64"/>
-      <c r="AI39" s="64"/>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64" t="s">
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="49"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="49"/>
+      <c r="AI39" s="49"/>
+      <c r="AJ39" s="49"/>
+      <c r="AK39" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AL39" s="49"/>
+      <c r="AM39" s="49"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="61" t="s">
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61" t="s">
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="61" t="s">
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="AL40" s="61"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="61"/>
-      <c r="AO40" s="61"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3064,31 +2946,29 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6"/>
-      <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
@@ -3099,11 +2979,11 @@
       <c r="Z42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="8" t="s">
         <v>3</v>
@@ -3116,33 +2996,31 @@
       <c r="AK42" s="7"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="61" t="s">
+      <c r="L43" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -3162,13 +3040,11 @@
       <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
@@ -3204,39 +3080,16 @@
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="135">
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AN32:AO32"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AN30:AO30"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AN28:AO28"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AN21:AO21"/>
+  <mergeCells count="77">
+    <mergeCell ref="AJ9:AK10"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="L43:T43"/>
     <mergeCell ref="C44:D44"/>
@@ -3263,76 +3116,38 @@
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="AB40:AG40"/>
     <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AK40:AO40"/>
+    <mergeCell ref="AK40:AM40"/>
     <mergeCell ref="X39:AA40"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="L42:T42"/>
     <mergeCell ref="AA42:AE42"/>
     <mergeCell ref="AB39:AG39"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="AN31:AO31"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AN33:AO33"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AN35:AO35"/>
-    <mergeCell ref="AN34:AO34"/>
     <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AK39:AO39"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AN38:AO38"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AN36:AO36"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AN37:AO37"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AK39:AM39"/>
     <mergeCell ref="C7:AI7"/>
-    <mergeCell ref="AM7:AO7"/>
+    <mergeCell ref="AL7:AM7"/>
     <mergeCell ref="C5:AI5"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="E9:AI9"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AN9:AO9"/>
     <mergeCell ref="E10:AI10"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AN10:AO10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="AH11:AH14"/>
     <mergeCell ref="AI11:AI14"/>
     <mergeCell ref="AJ11:AJ14"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AN13:AO13"/>
     <mergeCell ref="Y11:Y14"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="AA11:AA14"/>
     <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="D1:AH2"/>
-    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="N3:U3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="AF11:AF14"/>
     <mergeCell ref="AG11:AG14"/>
@@ -3353,7 +3168,7 @@
     <mergeCell ref="AE11:AE14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="40" man="1"/>
   </rowBreaks>
@@ -3364,7 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE2A25-6F17-4DD3-A2B5-AE67ED7ECA21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
